--- a/Timetable/output.xlsx
+++ b/Timetable/output.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\f\Documents\Visual Studio\TTSS\Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opsi Jay\Documents\Visual Studio 2017\Projects\Timetable\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{60C1E4B2-096B-4CC6-B1AB-7FC4D5DB62EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,850 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="279">
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>8:00 - 9:00</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>12:00 - 13:00</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>e305</t>
+  </si>
+  <si>
+    <t>z123</t>
+  </si>
+  <si>
+    <t>e302</t>
+  </si>
+  <si>
+    <t>lt026</t>
+  </si>
+  <si>
+    <t>f001</t>
+  </si>
+  <si>
+    <t>s013</t>
+  </si>
+  <si>
+    <t>s004</t>
+  </si>
+  <si>
+    <t>s028</t>
+  </si>
+  <si>
+    <t>z321</t>
+  </si>
+  <si>
+    <t>e303</t>
+  </si>
+  <si>
+    <t>f002</t>
+  </si>
+  <si>
+    <t>lab102</t>
+  </si>
+  <si>
+    <t>lab204</t>
+  </si>
+  <si>
+    <t>e304(l)</t>
+  </si>
+  <si>
+    <t>lab203</t>
+  </si>
+  <si>
+    <t>MyLab</t>
+  </si>
+  <si>
+    <t>s014</t>
+  </si>
+  <si>
+    <t>lab332</t>
+  </si>
+  <si>
+    <t>bcm128</t>
+  </si>
+  <si>
+    <t>bcm201</t>
+  </si>
+  <si>
+    <t>bcm216</t>
+  </si>
+  <si>
+    <t>bcm227</t>
+  </si>
+  <si>
+    <t>bcm228</t>
+  </si>
+  <si>
+    <t>bcm401</t>
+  </si>
+  <si>
+    <t>bcm202</t>
+  </si>
+  <si>
+    <t>bcm301</t>
+  </si>
+  <si>
+    <t>bcm327</t>
+  </si>
+  <si>
+    <t>bcm516</t>
+  </si>
+  <si>
+    <t>bcm520</t>
+  </si>
+  <si>
+    <t>mbg400</t>
+  </si>
+  <si>
+    <t>eng100</t>
+  </si>
+  <si>
+    <t>eng200</t>
+  </si>
+  <si>
+    <t>eng300</t>
+  </si>
+  <si>
+    <t>bcm100</t>
+  </si>
+  <si>
+    <t>csc405</t>
+  </si>
+  <si>
+    <t>bcm316</t>
+  </si>
+  <si>
+    <t>eng420</t>
+  </si>
+  <si>
+    <t>bcm500</t>
+  </si>
+  <si>
+    <t>mbg228</t>
+  </si>
+  <si>
+    <t>mbg221</t>
+  </si>
+  <si>
+    <t>mbg328</t>
+  </si>
+  <si>
+    <t>bcm501</t>
+  </si>
+  <si>
+    <t>mbg320</t>
+  </si>
+  <si>
+    <t>mbg416</t>
+  </si>
+  <si>
+    <t>bcm400</t>
+  </si>
+  <si>
+    <t>bcm300</t>
+  </si>
+  <si>
+    <t>eng400</t>
+  </si>
+  <si>
+    <t>chm200</t>
+  </si>
+  <si>
+    <t>chm400</t>
+  </si>
+  <si>
+    <t>ssg501</t>
+  </si>
+  <si>
+    <t>bcm101</t>
+  </si>
+  <si>
+    <t>eng220</t>
+  </si>
+  <si>
+    <t>mbg220</t>
+  </si>
+  <si>
+    <t>mbg321</t>
+  </si>
+  <si>
+    <t>phs427</t>
+  </si>
+  <si>
+    <t>mtx301</t>
+  </si>
+  <si>
+    <t>eng301</t>
+  </si>
+  <si>
+    <t>eng328</t>
+  </si>
+  <si>
+    <t>mtx500</t>
+  </si>
+  <si>
+    <t>phs400</t>
+  </si>
+  <si>
+    <t>mtx100</t>
+  </si>
+  <si>
+    <t>chm100</t>
+  </si>
+  <si>
+    <t>ssg502</t>
+  </si>
+  <si>
+    <t>eng501</t>
+  </si>
+  <si>
+    <t>eng500</t>
+  </si>
+  <si>
+    <t>mtx128</t>
+  </si>
+  <si>
+    <t>bcm220</t>
+  </si>
+  <si>
+    <t>ssg510</t>
+  </si>
+  <si>
+    <t>bcm416</t>
+  </si>
+  <si>
+    <t>bcm420</t>
+  </si>
+  <si>
+    <t>phs301</t>
+  </si>
+  <si>
+    <t>chm300</t>
+  </si>
+  <si>
+    <t>ssg503</t>
+  </si>
+  <si>
+    <t>phs401</t>
+  </si>
+  <si>
+    <t>phs116</t>
+  </si>
+  <si>
+    <t>phs316</t>
+  </si>
+  <si>
+    <t>phs327</t>
+  </si>
+  <si>
+    <t>phs300</t>
+  </si>
+  <si>
+    <t>phs416</t>
+  </si>
+  <si>
+    <t>phs308</t>
+  </si>
+  <si>
+    <t>mtx120</t>
+  </si>
+  <si>
+    <t>mtx320</t>
+  </si>
+  <si>
+    <t>ssg521</t>
+  </si>
+  <si>
+    <t>mtx328</t>
+  </si>
+  <si>
+    <t>mtx420</t>
+  </si>
+  <si>
+    <t>chm201</t>
+  </si>
+  <si>
+    <t>chm302</t>
+  </si>
+  <si>
+    <t>chm420</t>
+  </si>
+  <si>
+    <t>bcm200</t>
+  </si>
+  <si>
+    <t>fre101</t>
+  </si>
+  <si>
+    <t>fre102</t>
+  </si>
+  <si>
+    <t>fre120</t>
+  </si>
+  <si>
+    <t>cbg228</t>
+  </si>
+  <si>
+    <t>phs304</t>
+  </si>
+  <si>
+    <t>mbg401</t>
+  </si>
+  <si>
+    <t>cbg328</t>
+  </si>
+  <si>
+    <t>cbg203</t>
+  </si>
+  <si>
+    <t>cbg219</t>
+  </si>
+  <si>
+    <t>cbg300</t>
+  </si>
+  <si>
+    <t>cbg302</t>
+  </si>
+  <si>
+    <t>est213</t>
+  </si>
+  <si>
+    <t>mbg101</t>
+  </si>
+  <si>
+    <t>mbg427</t>
+  </si>
+  <si>
+    <t>mbg420</t>
+  </si>
+  <si>
+    <t>phs321</t>
+  </si>
+  <si>
+    <t>mtx316</t>
+  </si>
+  <si>
+    <t>phs101</t>
+  </si>
+  <si>
+    <t>mtx327</t>
+  </si>
+  <si>
+    <t>mtx427</t>
+  </si>
+  <si>
+    <t>mtx400</t>
+  </si>
+  <si>
+    <t>mtx428</t>
+  </si>
+  <si>
+    <t>mtx516</t>
+  </si>
+  <si>
+    <t>bcm527</t>
+  </si>
+  <si>
+    <t>cbg221</t>
+  </si>
+  <si>
+    <t>csc301</t>
+  </si>
+  <si>
+    <t>mbg200</t>
+  </si>
+  <si>
+    <t>mbg202</t>
+  </si>
+  <si>
+    <t>mbg300</t>
+  </si>
+  <si>
+    <t>mbg302</t>
+  </si>
+  <si>
+    <t>phs100</t>
+  </si>
+  <si>
+    <t>phs128</t>
+  </si>
+  <si>
+    <t>phs201</t>
+  </si>
+  <si>
+    <t>phs227</t>
+  </si>
+  <si>
+    <t>phs220</t>
+  </si>
+  <si>
+    <t>eng428</t>
+  </si>
+  <si>
+    <t>phs328</t>
+  </si>
+  <si>
+    <t>eng228</t>
+  </si>
+  <si>
+    <t>mtx101</t>
+  </si>
+  <si>
+    <t>mtx501</t>
+  </si>
+  <si>
+    <t>mtx520</t>
+  </si>
+  <si>
+    <t>chm101</t>
+  </si>
+  <si>
+    <t>chm401</t>
+  </si>
+  <si>
+    <t>chm116</t>
+  </si>
+  <si>
+    <t>chm120</t>
+  </si>
+  <si>
+    <t>chm216</t>
+  </si>
+  <si>
+    <t>chm227</t>
+  </si>
+  <si>
+    <t>bcm116</t>
+  </si>
+  <si>
+    <t>bcm428</t>
+  </si>
+  <si>
+    <t>mat201</t>
+  </si>
+  <si>
+    <t>mat202</t>
+  </si>
+  <si>
+    <t>mat428</t>
+  </si>
+  <si>
+    <t>mat402</t>
+  </si>
+  <si>
+    <t>mat220</t>
+  </si>
+  <si>
+    <t>fre128</t>
+  </si>
+  <si>
+    <t>fre202</t>
+  </si>
+  <si>
+    <t>fre221</t>
+  </si>
+  <si>
+    <t>fre328</t>
+  </si>
+  <si>
+    <t>fre302</t>
+  </si>
+  <si>
+    <t>cbg103</t>
+  </si>
+  <si>
+    <t>eng128</t>
+  </si>
+  <si>
+    <t>mtx220</t>
+  </si>
+  <si>
+    <t>eng527</t>
+  </si>
+  <si>
+    <t>eng101</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>bcm102</t>
+  </si>
+  <si>
+    <t>mat100</t>
+  </si>
+  <si>
+    <t>bcm127</t>
+  </si>
+  <si>
+    <t>mtx200</t>
+  </si>
+  <si>
+    <t>fre100</t>
+  </si>
+  <si>
+    <t>mat228</t>
+  </si>
+  <si>
+    <t>mat101</t>
+  </si>
+  <si>
+    <t>csc1</t>
+  </si>
+  <si>
+    <t>eng120</t>
+  </si>
+  <si>
+    <t>phs320</t>
+  </si>
+  <si>
+    <t>ssg517</t>
+  </si>
+  <si>
+    <t>mat102</t>
+  </si>
+  <si>
+    <t>mat200</t>
+  </si>
+  <si>
+    <t>mat203</t>
+  </si>
+  <si>
+    <t>mat401</t>
+  </si>
+  <si>
+    <t>fre121</t>
+  </si>
+  <si>
+    <t>fre300</t>
+  </si>
+  <si>
+    <t>ssg518</t>
+  </si>
+  <si>
+    <t>mbg128</t>
+  </si>
+  <si>
+    <t>fre301</t>
+  </si>
+  <si>
+    <t>cbg200</t>
+  </si>
+  <si>
+    <t>mbg100</t>
+  </si>
+  <si>
+    <t>mbg201</t>
+  </si>
+  <si>
+    <t>ssg509</t>
+  </si>
+  <si>
+    <t>eng201</t>
+  </si>
+  <si>
+    <t>phs420</t>
+  </si>
+  <si>
+    <t>eng216</t>
+  </si>
+  <si>
+    <t>phs302</t>
+  </si>
+  <si>
+    <t>mtx216</t>
+  </si>
+  <si>
+    <t>eng516</t>
+  </si>
+  <si>
+    <t>chm127</t>
+  </si>
+  <si>
+    <t>chm128</t>
+  </si>
+  <si>
+    <t>chm328</t>
+  </si>
+  <si>
+    <t>mat300</t>
+  </si>
+  <si>
+    <t>mat121</t>
+  </si>
+  <si>
+    <t>mat119</t>
+  </si>
+  <si>
+    <t>mat302</t>
+  </si>
+  <si>
+    <t>cbg100</t>
+  </si>
+  <si>
+    <t>csc302</t>
+  </si>
+  <si>
+    <t>cbg202</t>
+  </si>
+  <si>
+    <t>phy401</t>
+  </si>
+  <si>
+    <t>mbg203</t>
+  </si>
+  <si>
+    <t>mbg301</t>
+  </si>
+  <si>
+    <t>mbg303</t>
+  </si>
+  <si>
+    <t>mst411</t>
+  </si>
+  <si>
+    <t>bcm402</t>
+  </si>
+  <si>
+    <t>mat301</t>
+  </si>
+  <si>
+    <t>mat400</t>
+  </si>
+  <si>
+    <t>eng316</t>
+  </si>
+  <si>
+    <t>eng327</t>
+  </si>
+  <si>
+    <t>fre201</t>
+  </si>
+  <si>
+    <t>cbg120</t>
+  </si>
+  <si>
+    <t>eng320</t>
+  </si>
+  <si>
+    <t>mtx527</t>
+  </si>
+  <si>
+    <t>chm301</t>
+  </si>
+  <si>
+    <t>phs216</t>
+  </si>
+  <si>
+    <t>chm228</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>mtx402</t>
+  </si>
+  <si>
+    <t>cbg101</t>
+  </si>
+  <si>
+    <t>phs200</t>
+  </si>
+  <si>
+    <t>eng116</t>
+  </si>
+  <si>
+    <t>eng102</t>
+  </si>
+  <si>
+    <t>cbg102</t>
+  </si>
+  <si>
+    <t>eng401</t>
+  </si>
+  <si>
+    <t>mtx416</t>
+  </si>
+  <si>
+    <t>mat120</t>
+  </si>
+  <si>
+    <t>cbg321</t>
+  </si>
+  <si>
+    <t>mtx201</t>
+  </si>
+  <si>
+    <t>mtx401</t>
+  </si>
+  <si>
+    <t>cbg220</t>
+  </si>
+  <si>
+    <t>eng520</t>
+  </si>
+  <si>
+    <t>mtx300</t>
+  </si>
+  <si>
+    <t>mat128</t>
+  </si>
+  <si>
+    <t>mat420</t>
+  </si>
+  <si>
+    <t>fre228</t>
+  </si>
+  <si>
+    <t>fre200</t>
+  </si>
+  <si>
+    <t>fre220</t>
+  </si>
+  <si>
+    <t>phs309</t>
+  </si>
+  <si>
+    <t>chm220</t>
+  </si>
+  <si>
+    <t>chm202</t>
+  </si>
+  <si>
+    <t>chm327</t>
+  </si>
+  <si>
+    <t>mat103</t>
+  </si>
+  <si>
+    <t>phs307</t>
+  </si>
+  <si>
+    <t>cbg128</t>
+  </si>
+  <si>
+    <t>agr431</t>
+  </si>
+  <si>
+    <t>cbg121</t>
+  </si>
+  <si>
+    <t>cbg201</t>
+  </si>
+  <si>
+    <t>mtx227</t>
+  </si>
+  <si>
+    <t>mtx127</t>
+  </si>
+  <si>
+    <t>mat221</t>
+  </si>
+  <si>
+    <t>cbg303</t>
+  </si>
+  <si>
+    <t>mbg102</t>
+  </si>
+  <si>
+    <t>mbg120</t>
+  </si>
+  <si>
+    <t>phs127</t>
+  </si>
+  <si>
+    <t>phs120</t>
+  </si>
+  <si>
+    <t>bcm427</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>eng127</t>
+  </si>
+  <si>
+    <t>chm320</t>
+  </si>
+  <si>
+    <t>mtx302</t>
+  </si>
+  <si>
+    <t>bcm120</t>
+  </si>
+  <si>
+    <t>bcm320</t>
+  </si>
+  <si>
+    <t>mtx116</t>
+  </si>
+  <si>
+    <t>chm316</t>
+  </si>
+  <si>
+    <t>cbg301</t>
+  </si>
+  <si>
+    <t>cbg320</t>
+  </si>
+  <si>
+    <t>eng427</t>
+  </si>
+  <si>
+    <t>chm416</t>
+  </si>
+  <si>
+    <t>chm427</t>
+  </si>
+  <si>
+    <t>mat328</t>
+  </si>
+  <si>
+    <t>fre320</t>
+  </si>
+  <si>
+    <t>eng227</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,13 +1178,2824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" t="s">
+        <v>198</v>
+      </c>
+      <c r="V4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>176</v>
+      </c>
+      <c r="R5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" t="s">
+        <v>194</v>
+      </c>
+      <c r="U5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W5" t="s">
+        <v>137</v>
+      </c>
+      <c r="X5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R6" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
+        <v>199</v>
+      </c>
+      <c r="V6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>149</v>
+      </c>
+      <c r="R7" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" t="s">
+        <v>200</v>
+      </c>
+      <c r="V7" t="s">
+        <v>127</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" t="s">
+        <v>161</v>
+      </c>
+      <c r="U8" t="s">
+        <v>201</v>
+      </c>
+      <c r="V8" t="s">
+        <v>206</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" t="s">
+        <v>119</v>
+      </c>
+      <c r="U9" t="s">
+        <v>202</v>
+      </c>
+      <c r="V9" t="s">
+        <v>128</v>
+      </c>
+      <c r="W9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>180</v>
+      </c>
+      <c r="R11" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" t="s">
+        <v>190</v>
+      </c>
+      <c r="T11" t="s">
+        <v>195</v>
+      </c>
+      <c r="U11" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" t="s">
+        <v>207</v>
+      </c>
+      <c r="W11" t="s">
+        <v>210</v>
+      </c>
+      <c r="X11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R12" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" t="s">
+        <v>191</v>
+      </c>
+      <c r="T12" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" t="s">
+        <v>204</v>
+      </c>
+      <c r="V12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" t="s">
+        <v>211</v>
+      </c>
+      <c r="X12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>181</v>
+      </c>
+      <c r="R13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" t="s">
+        <v>197</v>
+      </c>
+      <c r="U13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W13" t="s">
+        <v>212</v>
+      </c>
+      <c r="X13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>182</v>
+      </c>
+      <c r="R19" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" t="s">
+        <v>192</v>
+      </c>
+      <c r="T19" t="s">
+        <v>115</v>
+      </c>
+      <c r="U19" t="s">
+        <v>205</v>
+      </c>
+      <c r="V19" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" t="s">
+        <v>265</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>263</v>
+      </c>
+      <c r="O24" t="s">
+        <v>263</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" t="s">
+        <v>266</v>
+      </c>
+      <c r="U24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
+        <v>193</v>
+      </c>
+      <c r="W24" t="s">
+        <v>101</v>
+      </c>
+      <c r="X24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>273</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>116</v>
+      </c>
+      <c r="R25" t="s">
+        <v>168</v>
+      </c>
+      <c r="S25" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25" t="s">
+        <v>163</v>
+      </c>
+      <c r="U25" t="s">
+        <v>189</v>
+      </c>
+      <c r="V25" t="s">
+        <v>234</v>
+      </c>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>237</v>
+      </c>
+      <c r="R26" t="s">
+        <v>236</v>
+      </c>
+      <c r="S26" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" t="s">
+        <v>247</v>
+      </c>
+      <c r="U26" t="s">
+        <v>63</v>
+      </c>
+      <c r="V26" t="s">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" t="s">
+        <v>238</v>
+      </c>
+      <c r="S27" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s">
+        <v>241</v>
+      </c>
+      <c r="U27" t="s">
+        <v>259</v>
+      </c>
+      <c r="V27" t="s">
+        <v>230</v>
+      </c>
+      <c r="W27" t="s">
+        <v>210</v>
+      </c>
+      <c r="X27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>265</v>
+      </c>
+      <c r="R28" t="s">
+        <v>171</v>
+      </c>
+      <c r="S28" t="s">
+        <v>264</v>
+      </c>
+      <c r="T28" t="s">
+        <v>215</v>
+      </c>
+      <c r="U28" t="s">
+        <v>260</v>
+      </c>
+      <c r="V28" t="s">
+        <v>95</v>
+      </c>
+      <c r="W28" t="s">
+        <v>199</v>
+      </c>
+      <c r="X28" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" t="s">
+        <v>204</v>
+      </c>
+      <c r="S29" t="s">
+        <v>267</v>
+      </c>
+      <c r="T29" t="s">
+        <v>109</v>
+      </c>
+      <c r="U29" t="s">
+        <v>131</v>
+      </c>
+      <c r="V29" t="s">
+        <v>96</v>
+      </c>
+      <c r="W29" t="s">
+        <v>200</v>
+      </c>
+      <c r="X29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" t="s">
+        <v>108</v>
+      </c>
+      <c r="S30" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" t="s">
+        <v>270</v>
+      </c>
+      <c r="U30" t="s">
+        <v>191</v>
+      </c>
+      <c r="V30" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" t="s">
+        <v>155</v>
+      </c>
+      <c r="X30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" t="s">
+        <v>248</v>
+      </c>
+      <c r="S31" t="s">
+        <v>66</v>
+      </c>
+      <c r="T31" t="s">
+        <v>250</v>
+      </c>
+      <c r="U31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>198</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s">
+        <v>256</v>
+      </c>
+      <c r="S32" t="s">
+        <v>79</v>
+      </c>
+      <c r="T32" t="s">
+        <v>183</v>
+      </c>
+      <c r="U32" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" t="s">
+        <v>221</v>
+      </c>
+      <c r="W32" t="s">
+        <v>242</v>
+      </c>
+      <c r="X32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s">
+        <v>110</v>
+      </c>
+      <c r="O33" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s">
+        <v>162</v>
+      </c>
+      <c r="S33" t="s">
+        <v>123</v>
+      </c>
+      <c r="T33" t="s">
+        <v>186</v>
+      </c>
+      <c r="U33" t="s">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s">
+        <v>59</v>
+      </c>
+      <c r="W33" t="s">
+        <v>202</v>
+      </c>
+      <c r="X33" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" t="s">
+        <v>212</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s">
+        <v>254</v>
+      </c>
+      <c r="S34" t="s">
+        <v>176</v>
+      </c>
+      <c r="T34" t="s">
+        <v>112</v>
+      </c>
+      <c r="U34" t="s">
+        <v>233</v>
+      </c>
+      <c r="V34" t="s">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>75</v>
+      </c>
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" t="s">
+        <v>88</v>
+      </c>
+      <c r="W35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>172</v>
+      </c>
+      <c r="O40" t="s">
+        <v>175</v>
+      </c>
+      <c r="P40" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>188</v>
+      </c>
+      <c r="R40" t="s">
+        <v>243</v>
+      </c>
+      <c r="S40" t="s">
+        <v>104</v>
+      </c>
+      <c r="T40" t="s">
+        <v>205</v>
+      </c>
+      <c r="U40" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Timetable/output.xlsx
+++ b/Timetable/output.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opsi Jay\Documents\Visual Studio 2017\Projects\Timetable\Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\f\Documents\Visual Studio\TTSS\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{60C1E4B2-096B-4CC6-B1AB-7FC4D5DB62EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="279">
   <si>
     <t>Monday</t>
   </si>
@@ -408,9 +407,6 @@
     <t>mbg200</t>
   </si>
   <si>
-    <t>mbg202</t>
-  </si>
-  <si>
     <t>mbg300</t>
   </si>
   <si>
@@ -862,12 +858,15 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>eng416</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1190,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1290,25 +1289,25 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
@@ -1326,67 +1325,67 @@
         <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="T3" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="U3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="W3" t="s">
         <v>120</v>
       </c>
       <c r="X3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AB3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AD3" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="AE3" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="AF3" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="AG3" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="AH3" t="s">
         <v>120</v>
@@ -1395,13 +1394,13 @@
         <v>84</v>
       </c>
       <c r="AJ3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM3" t="s">
         <v>96</v>
@@ -1412,118 +1411,118 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O4" t="s">
-        <v>169</v>
-      </c>
-      <c r="P4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>151</v>
-      </c>
-      <c r="R4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" t="s">
-        <v>189</v>
-      </c>
-      <c r="T4" t="s">
-        <v>193</v>
-      </c>
-      <c r="U4" t="s">
-        <v>198</v>
-      </c>
-      <c r="V4" t="s">
-        <v>132</v>
-      </c>
-      <c r="W4" t="s">
-        <v>160</v>
-      </c>
-      <c r="X4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>100</v>
-      </c>
       <c r="AG4" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="AH4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AI4" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK4" t="s">
         <v>35</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM4" t="s">
         <v>126</v>
@@ -1531,121 +1530,121 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" t="s">
+        <v>162</v>
+      </c>
+      <c r="U5" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" t="s">
+        <v>278</v>
+      </c>
+      <c r="W5" t="s">
+        <v>218</v>
+      </c>
+      <c r="X5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB5" t="s">
         <v>96</v>
       </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>176</v>
-      </c>
-      <c r="R5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" t="s">
-        <v>194</v>
-      </c>
-      <c r="U5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" t="s">
-        <v>174</v>
-      </c>
-      <c r="W5" t="s">
-        <v>137</v>
-      </c>
-      <c r="X5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
       <c r="AC5" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="AE5" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="AH5" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="AI5" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="AJ5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN5" t="s">
         <v>58</v>
@@ -1653,109 +1652,109 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="R6" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" t="s">
+        <v>182</v>
+      </c>
+      <c r="T6" t="s">
+        <v>172</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W6" t="s">
+        <v>220</v>
+      </c>
+      <c r="X6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>170</v>
-      </c>
-      <c r="P6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>177</v>
-      </c>
-      <c r="R6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" t="s">
-        <v>199</v>
-      </c>
-      <c r="V6" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>75</v>
-      </c>
       <c r="AH6" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="AI6" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s">
         <v>54</v>
@@ -1764,10 +1763,10 @@
         <v>98</v>
       </c>
       <c r="AL6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN6" t="s">
         <v>113</v>
@@ -1775,121 +1774,121 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
         <v>137</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="Q7" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="R7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="X7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="AA7" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="AC7" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="AD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG7" t="s">
         <v>173</v>
       </c>
-      <c r="AE7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>138</v>
-      </c>
       <c r="AH7" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="AI7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="AJ7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK7" t="s">
         <v>59</v>
       </c>
       <c r="AL7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN7" t="s">
         <v>70</v>
@@ -1897,109 +1896,109 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>178</v>
-      </c>
       <c r="R8" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="T8" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="U8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="V8" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="X8" t="s">
         <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG8" t="s">
         <v>68</v>
       </c>
-      <c r="AA8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>76</v>
-      </c>
       <c r="AH8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI8" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="AJ8" t="s">
         <v>86</v>
@@ -2011,7 +2010,7 @@
         <v>49</v>
       </c>
       <c r="AM8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN8" t="s">
         <v>72</v>
@@ -2019,121 +2018,121 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" t="s">
-        <v>167</v>
-      </c>
       <c r="O9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="Q9" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" t="s">
+        <v>160</v>
+      </c>
+      <c r="W9" t="s">
+        <v>245</v>
+      </c>
+      <c r="X9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="s">
         <v>186</v>
       </c>
-      <c r="S9" t="s">
-        <v>89</v>
-      </c>
-      <c r="T9" t="s">
-        <v>119</v>
-      </c>
-      <c r="U9" t="s">
-        <v>202</v>
-      </c>
-      <c r="V9" t="s">
-        <v>128</v>
-      </c>
-      <c r="W9" t="s">
-        <v>82</v>
-      </c>
-      <c r="X9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>155</v>
-      </c>
       <c r="AG9" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="AH9" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="AI9" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="AJ9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s">
         <v>123</v>
       </c>
       <c r="AL9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN9" t="s">
         <v>79</v>
@@ -2141,88 +2140,103 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>253</v>
+      </c>
+      <c r="I10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>169</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="U10" t="s">
-        <v>203</v>
+        <v>84</v>
+      </c>
+      <c r="V10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" t="s">
+        <v>48</v>
       </c>
       <c r="Y10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="AB10" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AC10" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AD10" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="AE10" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG10" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="AH10" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="AI10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2230,121 +2244,121 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O11" t="s">
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s">
         <v>112</v>
       </c>
-      <c r="S11" t="s">
-        <v>190</v>
-      </c>
       <c r="T11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="U11" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="V11" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="W11" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="X11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y11" t="s">
         <v>19</v>
       </c>
       <c r="Z11" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AA11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AB11" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AD11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AE11" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="AH11" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="AI11" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2352,121 +2366,121 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="O12" t="s">
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="Q12" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="S12" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="T12" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="U12" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="W12" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y12" t="s">
         <v>20</v>
       </c>
       <c r="Z12" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="AB12" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AD12" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AE12" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="AF12" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="AG12" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="AH12" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="AI12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AJ12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM12" t="s">
         <v>88</v>
       </c>
       <c r="AN12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2474,70 +2488,70 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="Q13" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V13" t="s">
+        <v>243</v>
+      </c>
+      <c r="W13" t="s">
         <v>197</v>
-      </c>
-      <c r="U13" t="s">
-        <v>124</v>
-      </c>
-      <c r="V13" t="s">
-        <v>208</v>
-      </c>
-      <c r="W13" t="s">
-        <v>212</v>
       </c>
       <c r="X13" t="s">
         <v>94</v>
@@ -2546,40 +2560,40 @@
         <v>21</v>
       </c>
       <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF13" t="s">
         <v>224</v>
       </c>
-      <c r="AA13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>63</v>
-      </c>
       <c r="AG13" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="AH13" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="AI13" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="AJ13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL13" t="s">
         <v>109</v>
@@ -2590,13 +2604,13 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
@@ -2605,48 +2619,54 @@
         <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
         <v>41</v>
       </c>
       <c r="Y14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="U15" t="s">
+        <v>42</v>
       </c>
       <c r="Y15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="AA15" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AI15" t="s">
         <v>120</v>
@@ -2657,28 +2677,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>129</v>
       </c>
       <c r="Y16" t="s">
         <v>24</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -2686,24 +2709,30 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s">
         <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
         <v>25</v>
       </c>
       <c r="Z17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2712,10 +2741,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -2724,13 +2753,16 @@
         <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>71</v>
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
       </c>
       <c r="Y18" t="s">
         <v>26</v>
       </c>
       <c r="Z18" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2738,7 +2770,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -2747,16 +2779,16 @@
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="I19" t="s">
         <v>125</v>
@@ -2765,31 +2797,31 @@
         <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R19" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="S19" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="T19" t="s">
+        <v>247</v>
+      </c>
+      <c r="U19" t="s">
         <v>115</v>
       </c>
-      <c r="U19" t="s">
-        <v>205</v>
-      </c>
       <c r="V19" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="Y19" t="s">
         <v>27</v>
@@ -2798,16 +2830,16 @@
         <v>125</v>
       </c>
       <c r="AA19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB19" t="s">
         <v>45</v>
       </c>
       <c r="AC19" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AE19" t="s">
         <v>78</v>
@@ -2816,16 +2848,16 @@
         <v>93</v>
       </c>
       <c r="AG19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AH19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI19" t="s">
         <v>111</v>
       </c>
       <c r="AJ19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s">
         <v>45</v>
@@ -2835,6 +2867,9 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
       <c r="M20" t="s">
         <v>28</v>
       </c>
@@ -2853,10 +2888,10 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -2923,31 +2958,31 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -2956,37 +2991,37 @@
         <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N24" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="R24" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="S24" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="T24" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="U24" t="s">
         <v>46</v>
       </c>
       <c r="V24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W24" t="s">
         <v>101</v>
@@ -2995,7 +3030,7 @@
         <v>61</v>
       </c>
       <c r="Y24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z24" t="s">
         <v>44</v>
@@ -3009,429 +3044,429 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" t="s">
+        <v>212</v>
+      </c>
+      <c r="S25" t="s">
+        <v>216</v>
+      </c>
+      <c r="T25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s">
+        <v>94</v>
+      </c>
+      <c r="V25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s">
+        <v>67</v>
+      </c>
+      <c r="X25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z25" t="s">
         <v>179</v>
       </c>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="s">
-        <v>273</v>
-      </c>
-      <c r="M25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>116</v>
-      </c>
-      <c r="R25" t="s">
-        <v>168</v>
-      </c>
-      <c r="S25" t="s">
-        <v>121</v>
-      </c>
-      <c r="T25" t="s">
-        <v>163</v>
-      </c>
-      <c r="U25" t="s">
-        <v>189</v>
-      </c>
-      <c r="V25" t="s">
-        <v>234</v>
-      </c>
-      <c r="W25" t="s">
-        <v>240</v>
-      </c>
-      <c r="X25" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>180</v>
-      </c>
       <c r="AA25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="Q26" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="R26" t="s">
+        <v>213</v>
+      </c>
+      <c r="S26" t="s">
+        <v>271</v>
+      </c>
+      <c r="T26" t="s">
         <v>236</v>
       </c>
-      <c r="S26" t="s">
-        <v>91</v>
-      </c>
-      <c r="T26" t="s">
-        <v>247</v>
-      </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="V26" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="P27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" t="s">
+        <v>106</v>
+      </c>
+      <c r="S27" t="s">
         <v>207</v>
       </c>
-      <c r="Q27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R27" t="s">
-        <v>238</v>
-      </c>
-      <c r="S27" t="s">
-        <v>76</v>
-      </c>
       <c r="T27" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="U27" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="V27" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="W27" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="X27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA27" t="s">
         <v>113</v>
       </c>
       <c r="AB27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="J28" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="Q28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R28" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="S28" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="T28" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="U28" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="V28" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="W28" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="X28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y28" t="s">
         <v>82</v>
       </c>
       <c r="Z28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA28" t="s">
         <v>114</v>
       </c>
       <c r="AB28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>106</v>
+      </c>
+      <c r="O29" t="s">
         <v>228</v>
       </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>247</v>
-      </c>
-      <c r="H29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" t="s">
-        <v>213</v>
-      </c>
-      <c r="L29" t="s">
-        <v>274</v>
-      </c>
-      <c r="M29" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" t="s">
-        <v>266</v>
-      </c>
-      <c r="O29" t="s">
-        <v>33</v>
-      </c>
       <c r="P29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" t="s">
+        <v>270</v>
+      </c>
+      <c r="S29" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29" t="s">
-        <v>204</v>
-      </c>
-      <c r="S29" t="s">
-        <v>267</v>
-      </c>
       <c r="T29" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="U29" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="V29" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="W29" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="X29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB29" t="s">
         <v>99</v>
@@ -3439,138 +3474,156 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="Q30" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="R30" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="T30" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="U30" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="V30" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="W30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="X30" t="s">
         <v>41</v>
       </c>
       <c r="Y30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" t="s">
+        <v>176</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q31" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="R31" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="T31" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="U31" t="s">
-        <v>209</v>
+        <v>98</v>
+      </c>
+      <c r="V31" t="s">
+        <v>183</v>
+      </c>
+      <c r="W31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -3578,82 +3631,82 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="Q32" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="R32" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="S32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T32" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="W32" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="X32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB32" t="s">
         <v>84</v>
@@ -3664,82 +3717,82 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M33" t="s">
         <v>20</v>
       </c>
       <c r="N33" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>102</v>
+      </c>
+      <c r="R33" t="s">
+        <v>206</v>
+      </c>
+      <c r="S33" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33" t="s">
+        <v>253</v>
+      </c>
+      <c r="U33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V33" t="s">
+        <v>215</v>
+      </c>
+      <c r="W33" t="s">
+        <v>116</v>
+      </c>
+      <c r="X33" t="s">
         <v>271</v>
       </c>
-      <c r="P33" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>38</v>
-      </c>
-      <c r="R33" t="s">
-        <v>162</v>
-      </c>
-      <c r="S33" t="s">
-        <v>123</v>
-      </c>
-      <c r="T33" t="s">
-        <v>186</v>
-      </c>
-      <c r="U33" t="s">
-        <v>71</v>
-      </c>
-      <c r="V33" t="s">
-        <v>59</v>
-      </c>
-      <c r="W33" t="s">
-        <v>202</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA33" t="s">
         <v>272</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3747,99 +3800,102 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="Q34" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="R34" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="S34" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="T34" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s">
+        <v>158</v>
+      </c>
+      <c r="W34" t="s">
         <v>233</v>
-      </c>
-      <c r="V34" t="s">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s">
-        <v>257</v>
       </c>
       <c r="X34" t="s">
         <v>57</v>
       </c>
       <c r="Y34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N35" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
         <v>55</v>
@@ -3853,19 +3909,25 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
         <v>120</v>
@@ -3879,16 +3941,19 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" t="s">
         <v>71</v>
       </c>
       <c r="M37" t="s">
         <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O37" t="s">
         <v>58</v>
@@ -3899,19 +3964,22 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
       </c>
       <c r="M38" t="s">
         <v>25</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -3919,13 +3987,16 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
       </c>
       <c r="M39" t="s">
         <v>26</v>
       </c>
       <c r="N39" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O39" t="s">
         <v>69</v>
@@ -3936,52 +4007,58 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G40" t="s">
-        <v>250</v>
+        <v>191</v>
+      </c>
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
+        <v>204</v>
       </c>
       <c r="M40" t="s">
         <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="O40" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Q40" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="R40" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="S40" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="T40" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="U40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">

--- a/Timetable/output.xlsx
+++ b/Timetable/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="285">
   <si>
     <t>Monday</t>
   </si>
@@ -812,9 +812,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>eng127</t>
-  </si>
-  <si>
     <t>chm320</t>
   </si>
   <si>
@@ -861,6 +858,27 @@
   </si>
   <si>
     <t>eng416</t>
+  </si>
+  <si>
+    <t>e304(Lab)</t>
+  </si>
+  <si>
+    <t>lab203(Lab)</t>
+  </si>
+  <si>
+    <t>ssg501(Lab)</t>
+  </si>
+  <si>
+    <t>phs308(Lab)</t>
+  </si>
+  <si>
+    <t>mic212</t>
+  </si>
+  <si>
+    <t>csc522</t>
+  </si>
+  <si>
+    <t>law411</t>
   </si>
 </sst>
 </file>
@@ -1289,16 +1307,16 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
@@ -1325,19 +1343,19 @@
         <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="R3" t="s">
         <v>242</v>
@@ -1361,19 +1379,19 @@
         <v>212</v>
       </c>
       <c r="Y3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AD3" t="s">
         <v>181</v>
@@ -1411,16 +1429,16 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -1429,7 +1447,7 @@
         <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -1447,13 +1465,13 @@
         <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -1483,16 +1501,16 @@
         <v>213</v>
       </c>
       <c r="Y4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="AC4" t="s">
         <v>33</v>
@@ -1530,19 +1548,19 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>118</v>
@@ -1566,16 +1584,16 @@
         <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="Q5" t="s">
         <v>49</v>
@@ -1593,7 +1611,7 @@
         <v>179</v>
       </c>
       <c r="V5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W5" t="s">
         <v>218</v>
@@ -1602,16 +1620,16 @@
         <v>193</v>
       </c>
       <c r="Y5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AA5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AB5" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="AC5" t="s">
         <v>38</v>
@@ -1652,16 +1670,16 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
         <v>80</v>
@@ -1688,16 +1706,16 @@
         <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="O6" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="Q6" t="s">
         <v>63</v>
@@ -1724,16 +1742,16 @@
         <v>214</v>
       </c>
       <c r="Y6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="AA6" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="AB6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="AC6" t="s">
         <v>209</v>
@@ -1777,13 +1795,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
         <v>109</v>
@@ -1813,13 +1831,13 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="s">
         <v>108</v>
@@ -1849,13 +1867,13 @@
         <v>14</v>
       </c>
       <c r="Z7" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="AB7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AC7" t="s">
         <v>223</v>
@@ -1896,19 +1914,19 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -1932,16 +1950,16 @@
         <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="Q8" t="s">
         <v>50</v>
@@ -1962,22 +1980,22 @@
         <v>192</v>
       </c>
       <c r="W8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X8" t="s">
         <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AB8" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="AC8" t="s">
         <v>227</v>
@@ -2018,10 +2036,10 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
         <v>203</v>
@@ -2054,7 +2072,7 @@
         <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -2090,10 +2108,10 @@
         <v>216</v>
       </c>
       <c r="Y9" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="Z9" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="AA9" t="s">
         <v>76</v>
@@ -2140,10 +2158,10 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -2173,16 +2191,16 @@
         <v>169</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="O10" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="Q10" t="s">
         <v>57</v>
@@ -2206,16 +2224,16 @@
         <v>48</v>
       </c>
       <c r="Y10" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="Z10" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="AA10" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="AB10" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="AC10" t="s">
         <v>131</v>
@@ -2233,7 +2251,7 @@
         <v>252</v>
       </c>
       <c r="AH10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AI10" t="s">
         <v>246</v>
@@ -2250,7 +2268,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -2304,7 +2322,7 @@
         <v>189</v>
       </c>
       <c r="V11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W11" t="s">
         <v>176</v>
@@ -2340,7 +2358,7 @@
         <v>160</v>
       </c>
       <c r="AH11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI11" t="s">
         <v>149</v>
@@ -2363,7 +2381,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -2399,7 +2417,7 @@
         <v>148</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="N12" t="s">
         <v>237</v>
@@ -2488,34 +2506,34 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
         <v>149</v>
@@ -2524,34 +2542,34 @@
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="T13" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="U13" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="V13" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="W13" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="X13" t="s">
         <v>94</v>
@@ -2604,25 +2622,31 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
         <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="s">
+        <v>115</v>
       </c>
       <c r="Y14" t="s">
         <v>23</v>
@@ -2636,25 +2660,28 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>55</v>
+        <v>242</v>
+      </c>
+      <c r="P15" t="s">
+        <v>204</v>
       </c>
       <c r="U15" t="s">
         <v>42</v>
@@ -2674,25 +2701,28 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>249</v>
       </c>
       <c r="Y16" t="s">
         <v>24</v>
@@ -2706,25 +2736,28 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>191</v>
+      </c>
+      <c r="P17" t="s">
+        <v>283</v>
       </c>
       <c r="Y17" t="s">
         <v>25</v>
@@ -2738,25 +2771,28 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>247</v>
+      </c>
+      <c r="P18" t="s">
+        <v>284</v>
       </c>
       <c r="Y18" t="s">
         <v>26</v>
@@ -2767,16 +2803,16 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
         <v>242</v>
@@ -2794,13 +2830,13 @@
         <v>125</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
         <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P19" t="s">
         <v>83</v>
@@ -2865,16 +2901,16 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="O20" t="s">
         <v>90</v>
@@ -2884,6 +2920,29 @@
       </c>
       <c r="Z20" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" t="s">
+        <v>279</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -2891,7 +2950,7 @@
         <v>261</v>
       </c>
       <c r="M22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -2991,7 +3050,7 @@
         <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s">
         <v>18</v>
@@ -3077,7 +3136,7 @@
         <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s">
         <v>11</v>
@@ -3125,7 +3184,7 @@
         <v>138</v>
       </c>
       <c r="AB25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -3136,7 +3195,7 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
         <v>150</v>
@@ -3184,7 +3243,7 @@
         <v>213</v>
       </c>
       <c r="S26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T26" t="s">
         <v>236</v>
@@ -3288,7 +3347,7 @@
         <v>219</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s">
         <v>156</v>
@@ -3317,7 +3376,7 @@
         <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -3350,10 +3409,10 @@
         <v>87</v>
       </c>
       <c r="Q28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S28" t="s">
         <v>110</v>
@@ -3383,7 +3442,7 @@
         <v>114</v>
       </c>
       <c r="AB28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -3391,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
@@ -3421,7 +3480,7 @@
         <v>198</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s">
         <v>15</v>
@@ -3439,7 +3498,7 @@
         <v>81</v>
       </c>
       <c r="R29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S29" t="s">
         <v>40</v>
@@ -3507,7 +3566,7 @@
         <v>199</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s">
         <v>16</v>
@@ -3552,7 +3611,7 @@
         <v>215</v>
       </c>
       <c r="AA30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB30" t="s">
         <v>153</v>
@@ -3685,7 +3744,7 @@
         <v>88</v>
       </c>
       <c r="T32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U32" t="s">
         <v>59</v>
@@ -3783,7 +3842,7 @@
         <v>116</v>
       </c>
       <c r="X33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y33" t="s">
         <v>254</v>
@@ -3792,7 +3851,7 @@
         <v>251</v>
       </c>
       <c r="AA33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3821,7 +3880,7 @@
         <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
         <v>144</v>
@@ -3875,7 +3934,7 @@
         <v>205</v>
       </c>
       <c r="AA34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
